--- a/graph_generation/results_prelim/gpt3.5/level_6/k_1.xlsx
+++ b/graph_generation/results_prelim/gpt3.5/level_6/k_1.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="o_10" sheetId="1" r:id="rId1"/>
+    <sheet name="o_20" sheetId="2" r:id="rId2"/>
+    <sheet name="o_20_jumbled" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>prompt</t>
   </si>
@@ -26,6 +28,9 @@
   </si>
   <si>
     <t>evaluator_response</t>
+  </si>
+  <si>
+    <t>evaluator_partial_correctness</t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
@@ -45,56 +50,186 @@
  Given these examples, answer the following quesiton.
 what is the least cost path from node A to node P?
    A B C D E F G H I J K L M N O P
- A 0 2 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- B 2 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0
- C 0 2 0 2 0 0 1 0 0 0 0 0 0 0 0 0
- D 0 0 2 0 0 0 0 2 0 0 0 0 0 0 0 0
- E 4 0 0 0 0 5 0 0 3 0 0 0 0 0 0 0
- F 0 1 0 0 5 0 1 0 0 0 0 0 0 0 0 0
- G 0 0 1 0 0 1 0 3 0 0 1 0 0 0 0 0
- H 0 0 0 2 0 0 3 0 0 0 0 2 0 0 0 0
- I 0 0 0 0 3 0 0 0 0 3 0 0 3 0 0 0
- J 0 0 0 0 0 0 0 0 3 0 0 0 0 1 0 0
- K 0 0 0 0 0 0 1 0 0 0 0 3 0 0 0 0
- L 0 0 0 0 0 0 0 2 0 0 3 0 0 0 0 1
+ A 0 1 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 5 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 5 0 0 0 0 4 0 0 0 0 0 0 0 0
+ E 3 0 0 0 0 2 0 0 3 0 0 0 0 0 0 0
+ F 0 2 0 0 2 0 1 0 0 2 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 5 0 0 4 0 0 0 0 0
+ H 0 0 0 4 0 0 5 0 0 0 0 3 0 0 0 0
+ I 0 0 0 0 3 0 0 0 0 0 0 0 3 0 0 0
+ J 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0
+ K 0 0 0 0 0 0 4 0 0 0 0 0 0 0 2 0
+ L 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 4
  M 0 0 0 0 0 0 0 0 3 0 0 0 0 4 0 0
- N 0 0 0 0 0 0 0 0 0 1 0 0 4 0 5 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 4
- P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 4 0
+ N 0 0 0 0 0 0 0 0 0 1 0 0 4 0 4 0
+ O 0 0 0 0 0 0 0 0 0 0 2 0 0 4 0 1
+ P 0 0 0 0 0 0 0 0 0 0 0 4 0 0 1 0
     </t>
   </si>
   <si>
-    <t>A -&gt; B -&gt; F -&gt; G -&gt; K -&gt; L -&gt; P</t>
-  </si>
-  <si>
-    <t>To find the least cost path from node A to node P in the given graph, we can use Dijkstra's algorithm. Here is the step by step process:
-1. Initialize a list of distances from node A to all other nodes, initially set to infinity except for node A, which is set to 0.
-   dist = [0, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity]
-2. Initialize a list of visited nodes, initially set to False for all nodes.
-   visited = [False, False, False, False, False, False, False, False, False, False, False, False, False, False, False, False]
-3. While there are unvisited nodes, repeat steps 4-6.
-4. Find the node with the minimum distance from the start node that has not been visited yet.
-   min_dist = infinity
-   min_node = -1
-   for i in range(16):
-       if not visited[i] and dist[i] &lt; min_dist:
-           min_dist = dist[i]
-           min_node = i
-5. Mark the minimum distance node as visited.
-   visited[min_node] = True
-6. Update the distances of adjacent nodes to the minimum distance node if the new path through the minimum distance node is shorter.
-   for i in range(16):
-       if not visited[i] and graph[min_node][i] &gt; 0:
-           new_dist = dist[min_node] + graph[min_node][i]
-           if new_dist &lt; dist[i]:
-               dist[i] = new_dist
-7. Repeat steps 4-6 until the destination node (node P) is visited.
-After applying Dijkstra's algorithm to the given adjacency matrix, the least cost path from node A to node P is as follows:
-A -&gt; B -&gt; C -&gt; F -&gt; L -&gt; P
-The total cost of this path is 3.</t>
+    <t>A -&gt; B -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P</t>
+  </si>
+  <si>
+    <t>To find the least cost path from node A to node P, we can use Dijkstra's algorithm.
+1. Initialize an empty set of visited nodes and a dictionary of distances. Set the distance of all nodes except A to infinity, and set the distance of A to 0.
+2. While the set of visited nodes does not include P:
+   a. Select the node with the smallest distance that has not been visited yet. Let's call this node "current".
+   b. Mark current as visited.
+   c. Update the distances of the neighboring nodes of current: for each neighbor, calculate the distance as the sum of the current distance and the cost of traveling from current to the neighbor. If this distance is smaller than the current distance of the neighbor, update the distance.
+3. Once P has been visited, we know the least cost path from A to P is the path with the smallest distance. To find this path, we can backtrack from P to A using the updated distances and adjacency matrix:
+   a. Initialize an empty path and set the current node to P.
+   b. While the current node is not A:
+      - Add the current node to the beginning of the path.
+      - Find the neighbor of the current node that has the smallest distance.
+      - Set the current node to this neighbor.
+   c. Add A to the beginning of the path.
+The final path we obtain will be the least cost path from A to P.
+Applying this algorithm to the given adjacency matrix, we can find the least cost path from node A to node P.</t>
   </si>
   <si>
     <t>Wrong</t>
+  </si>
+  <si>
+    <t>Output: Not enough information provided</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: what is the least cost path from node A to node Y?
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 4 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 4 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 2 0 1 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 4 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 4 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 2 0 0 0 0 0 2 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 1 0 0 0 2 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 3 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 1 0 0 0 4 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 4 0 0 0 3 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 5 0 0 0 0 0 5 0 0 0 2 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 5 0 2 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 4 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 3 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 5 0 0 0 1 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 1 0 0 0 3 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 1 0 1 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 2
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 2 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 2 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 2 0 2 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 2 0
+Solution: A -&gt; B -&gt; C -&gt; D -&gt; I -&gt; J -&gt; O -&gt; T -&gt; Y
+ Given these examples, answer the following quesiton.
+what is the least cost path from node A to node Y?
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 5 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 5 0 2 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 2 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 3 0 4 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 4 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 3 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 4 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 4 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 2 0 0 0 4 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 2 0 0 0 2 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 5 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 1 0 0 0 1 0 5 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 5 0 3 0 0 0 1 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 5 0 0 0 3 0 0 0 0 0 1 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 3 0 0 0 3 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 1 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 4 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 4 0 0 0 0 0 5
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 4 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 4 0 2 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 2 0 2 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 4
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 4 0
+    </t>
+  </si>
+  <si>
+    <t>A -&gt; F -&gt; K -&gt; P -&gt; Q -&gt; V -&gt; W -&gt; X -&gt; Y</t>
+  </si>
+  <si>
+    <t>The least cost path from node A to node Y is A -&gt; F -&gt; J -&gt; O -&gt; T -&gt; Y.</t>
+  </si>
+  <si>
+    <t>Output: 2/6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: what is the least cost path from node A to node Y?
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 4 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 4 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 2 0 1 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 4 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 4 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 2 0 0 0 0 0 2 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 1 0 0 0 2 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 3 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 1 0 0 0 4 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 4 0 0 0 3 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 5 0 0 0 0 0 5 0 0 0 2 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 5 0 2 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 4 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 3 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 5 0 0 0 1 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 1 0 0 0 3 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 1 0 1 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 2
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 2 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 2 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 2 0 2 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 2 0
+Solution: A -&gt; B -&gt; C -&gt; D -&gt; I -&gt; J -&gt; O -&gt; T -&gt; Y
+ Given these examples, answer the following quesiton.
+what is the least cost path from node A to node Y?
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 1 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 3 0 5 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 5 0 5 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 5 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 5 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 5 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 4 0 0 0 3 0 4 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 1 0 0 0 4 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 2 0 0 0 0 0 5 0 0 0 1 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 4 0 0 0 5 0 1 0 0 0 5 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 5 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 5 0 0 0 2 0 4 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 4 0 0 0 4 0 0 0 0 0 5 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 5 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 2 0 0 0 0 0 5 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 4 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 4
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 4 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 4 0 2 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 2 0 5 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 5 0 2
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 2 0
+    </t>
+  </si>
+  <si>
+    <t>The least cost path from node A to node Y is A -&gt; B -&gt; C -&gt; D -&gt; I -&gt; J -&gt; O -&gt; T -&gt; Y.</t>
+  </si>
+  <si>
+    <t>Output: 1/9</t>
   </si>
 </sst>
 </file>
@@ -452,13 +587,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,19 +606,119 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/graph_generation/results_prelim/gpt3.5/level_6/k_1.xlsx
+++ b/graph_generation/results_prelim/gpt3.5/level_6/k_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>prompt</t>
   </si>
@@ -35,7 +35,7 @@
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
-Example 1: what is the least cost path from node A to node I?
+Example 1: what is the least cost path from node A to node I? Return the sequence of nodes in response.
    A B C D E F G H I
  A 0 1 0 3 0 0 0 0 0
  B 1 0 2 0 2 0 0 0 0
@@ -48,56 +48,42 @@
  I 0 0 0 0 0 1 0 1 0
 Solution: A -&gt; B -&gt; E -&gt; H -&gt; I
  Given these examples, answer the following quesiton.
-what is the least cost path from node A to node P?
+what is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 1 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 5 0 0 0 0 4 0 0 0 0 0 0 0 0
- E 3 0 0 0 0 2 0 0 3 0 0 0 0 0 0 0
- F 0 2 0 0 2 0 1 0 0 2 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 5 0 0 4 0 0 0 0 0
- H 0 0 0 4 0 0 5 0 0 0 0 3 0 0 0 0
- I 0 0 0 0 3 0 0 0 0 0 0 0 3 0 0 0
- J 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0
- K 0 0 0 0 0 0 4 0 0 0 0 0 0 0 2 0
- L 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 4
- M 0 0 0 0 0 0 0 0 3 0 0 0 0 4 0 0
- N 0 0 0 0 0 0 0 0 0 1 0 0 4 0 4 0
- O 0 0 0 0 0 0 0 0 0 0 2 0 0 4 0 1
- P 0 0 0 0 0 0 0 0 0 0 0 4 0 0 1 0
+ A 0 1 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 5 0 0 0 0 3 0 0 0 0 0 0 0 0
+ E 4 0 0 0 0 2 0 0 2 0 0 0 0 0 0 0
+ F 0 1 0 0 2 0 3 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 3 0 5 0 0 4 0 0 0 0 0
+ H 0 0 0 3 0 0 5 0 0 0 0 2 0 0 0 0
+ I 0 0 0 0 2 0 0 0 0 3 0 0 2 0 0 0
+ J 0 0 0 0 0 0 0 0 3 0 2 0 0 2 0 0
+ K 0 0 0 0 0 0 4 0 0 2 0 5 0 0 4 0
+ L 0 0 0 0 0 0 0 2 0 0 5 0 0 0 0 5
+ M 0 0 0 0 0 0 0 0 2 0 0 0 0 4 0 0
+ N 0 0 0 0 0 0 0 0 0 2 0 0 4 0 4 0
+ O 0 0 0 0 0 0 0 0 0 0 4 0 0 4 0 3
+ P 0 0 0 0 0 0 0 0 0 0 0 5 0 0 3 0
     </t>
   </si>
   <si>
     <t>A -&gt; B -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P</t>
   </si>
   <si>
-    <t>To find the least cost path from node A to node P, we can use Dijkstra's algorithm.
-1. Initialize an empty set of visited nodes and a dictionary of distances. Set the distance of all nodes except A to infinity, and set the distance of A to 0.
-2. While the set of visited nodes does not include P:
-   a. Select the node with the smallest distance that has not been visited yet. Let's call this node "current".
-   b. Mark current as visited.
-   c. Update the distances of the neighboring nodes of current: for each neighbor, calculate the distance as the sum of the current distance and the cost of traveling from current to the neighbor. If this distance is smaller than the current distance of the neighbor, update the distance.
-3. Once P has been visited, we know the least cost path from A to P is the path with the smallest distance. To find this path, we can backtrack from P to A using the updated distances and adjacency matrix:
-   a. Initialize an empty path and set the current node to P.
-   b. While the current node is not A:
-      - Add the current node to the beginning of the path.
-      - Find the neighbor of the current node that has the smallest distance.
-      - Set the current node to this neighbor.
-   c. Add A to the beginning of the path.
-The final path we obtain will be the least cost path from A to P.
-Applying this algorithm to the given adjacency matrix, we can find the least cost path from node A to node P.</t>
+    <t>The least cost path from node A to node P is: A -&gt; B -&gt; F -&gt; G -&gt; K -&gt; L -&gt; P</t>
   </si>
   <si>
     <t>Wrong</t>
   </si>
   <si>
-    <t>Output: Not enough information provided</t>
+    <t>5/7</t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
-Example 1: what is the least cost path from node A to node Y?
+Example 1: what is the least cost path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
  A 0 4 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  B 4 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
@@ -126,48 +112,49 @@
  Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 2 0
 Solution: A -&gt; B -&gt; C -&gt; D -&gt; I -&gt; J -&gt; O -&gt; T -&gt; Y
  Given these examples, answer the following quesiton.
-what is the least cost path from node A to node Y?
+what is the least cost path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 5 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 5 0 2 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 2 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 3 0 4 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 4 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 3 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 4 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 1 0 4 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 2 0 0 0 4 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 2 0 0 0 2 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 5 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 1 0 0 0 1 0 5 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 5 0 3 0 0 0 1 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 5 0 0 0 3 0 0 0 0 0 1 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 3 0 0 0 3 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 1 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 4 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 4 0 0 0 0 0 5
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 4 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 4 0 2 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 2 0 2 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 4
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 4 0
+ A 0 4 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 4 0 5 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 5 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 2 0 1 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 2 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 5 0 0 0 3 0 1 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 2 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 2 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 3 0 0 0 2 0 4 0 0 0 4 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 4 0 4 0 0 0 4 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 4 0 0 0 4 0 5 0 0 0 5 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 1 0 0 0 5 0 0 0 0 0 5 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 4 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 1 0 5 0 0 0 1 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 5 0 5 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 5 0 4 0 0 0 4 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 4 0 0 0 0 0 4
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 2 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 5 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 4 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 4 0 5
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 5 0
     </t>
   </si>
   <si>
     <t>A -&gt; F -&gt; K -&gt; P -&gt; Q -&gt; V -&gt; W -&gt; X -&gt; Y</t>
   </si>
   <si>
-    <t>The least cost path from node A to node Y is A -&gt; F -&gt; J -&gt; O -&gt; T -&gt; Y.</t>
-  </si>
-  <si>
-    <t>Output: 2/6</t>
+    <t>The least cost path from node A to node Y is:
+A -&gt; B -&gt; G -&gt; H -&gt; I -&gt; J -&gt; O -&gt; T -&gt; Y</t>
+  </si>
+  <si>
+    <t>1/9</t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
-Example 1: what is the least cost path from node A to node Y?
+Example 1: what is the least cost path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
  A 0 4 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  B 4 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
@@ -196,40 +183,65 @@
  Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 2 0
 Solution: A -&gt; B -&gt; C -&gt; D -&gt; I -&gt; J -&gt; O -&gt; T -&gt; Y
  Given these examples, answer the following quesiton.
-what is the least cost path from node A to node Y?
+what is the least cost path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 1 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 3 0 5 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 5 0 5 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 5 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 5 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 5 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 4 0 0 0 3 0 4 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 1 0 0 0 4 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 2 0 0 0 0 0 5 0 0 0 1 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 4 0 0 0 5 0 1 0 0 0 5 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 5 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 5 0 0 0 2 0 4 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 4 0 0 0 4 0 0 0 0 0 5 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 5 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 2 0 0 0 0 0 5 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 4 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 4
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 4 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 4 0 2 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 2 0 5 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 5 0 2
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 2 0
+ A 0 1 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 5 0 4 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 4 0 3 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 3 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 4 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 4 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 1 0 0 0 4 0 2 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 3 0 0 0 2 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 4 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 3 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 4 0 0 0 2 0 3 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 3 0 0 0 3 0 0 0 0 0 4 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 4 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 4 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 5 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 5 0 0 0 0 0 1
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 3 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 3 0 4 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 1 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 5
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 5 0
     </t>
   </si>
   <si>
-    <t>The least cost path from node A to node Y is A -&gt; B -&gt; C -&gt; D -&gt; I -&gt; J -&gt; O -&gt; T -&gt; Y.</t>
-  </si>
-  <si>
-    <t>Output: 1/9</t>
+    <t>A -&gt; B -&gt; C -&gt; H -&gt; M -&gt; N -&gt; O -&gt; T -&gt; Y</t>
+  </si>
+  <si>
+    <t>To find the least cost path from node A to node Y, we can use Dijkstra's algorithm. 
+1. Create a list of unvisited nodes and set their initial distances to infinity, except for node A which is set to 0. 
+   Unvisited nodes: [A, B, C, D, E, F, G, H, I, J, K, L, M, N, O, P, Q, R, S, T, U, V, W, X, Y]
+   Distance from A: [0, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞]
+2. Choose the node with the smallest current distance (in this case, A) and visit it. 
+   Current node: A
+   Visited nodes: [A]
+3. Update the distance to its neighboring nodes if the new distance is smaller than their current distance. 
+   Distance from A: [0, 4, ∞, ∞, ∞, 2, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞]
+4. Repeat steps 2 and 3 until all nodes have been visited. 
+   Current node: F
+   Visited nodes: [A, F]
+   Distance from A: [0, 4, ∞, ∞, ∞, 2, 4, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞]
+   Current node: G
+   Visited nodes: [A, F, G]
+   Distance from A: [0, 4, ∞, ∞, ∞, 2, 4, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞]
+   ...
+   Current node: Y
+   Visited nodes: [A, F, G, J, O, T, Y]
+   Distance from A: [0, 4, 6, 5, 9, 7, 8, ∞, 7, 6, 6, 14, 15, 13, 14, 18, 18, 23, 19, 12, 14, 16, 16, 20, 15]
+5. To find the sequence of nodes, backtrack from node Y to node A using the distance values and the adjacency matrix. 
+   Path: Y -&gt; T -&gt; O -&gt; J -&gt; G -&gt; F -&gt; A
+Therefore, the least cost path from node A to node Y is A -&gt; F -&gt; G -&gt; J -&gt; O -&gt; T -&gt; Y.</t>
+  </si>
+  <si>
+    <t>0/9</t>
   </si>
 </sst>
 </file>
@@ -709,16 +721,16 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
